--- a/OnPeutMangerOu.xlsx
+++ b/OnPeutMangerOu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caroline\Documents\Boulot\OnVaMangerOu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63791767-E8A6-4561-88E0-1021489953F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDA63E7-F2F0-4DF5-B5D1-2BFC399F0730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A42B110-F43A-4484-9137-61000501A04F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Nom</t>
   </si>
@@ -70,9 +70,6 @@
     <t>La Rizière</t>
   </si>
   <si>
-    <t>Paradise Plant-Based Paper</t>
-  </si>
-  <si>
     <t>Bioburger</t>
   </si>
   <si>
@@ -242,6 +239,12 @@
   </si>
   <si>
     <t>Oui même en ligne</t>
+  </si>
+  <si>
+    <t>Paradise Plant-Based</t>
+  </si>
+  <si>
+    <t>Cartonnés</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -673,31 +676,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,15 +708,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,49 +724,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,10 +777,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,14 +788,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -804,37 +807,37 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -846,49 +849,51 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -899,89 +904,89 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/OnPeutMangerOu.xlsx
+++ b/OnPeutMangerOu.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caroline\Documents\Boulot\OnVaMangerOu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\Boulot\OnVaMangerOu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDA63E7-F2F0-4DF5-B5D1-2BFC399F0730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4649F7-A4D6-4FB4-8212-993F668B3A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A42B110-F43A-4484-9137-61000501A04F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5A42B110-F43A-4484-9137-61000501A04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,171 +35,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Nom</t>
   </si>
   <si>
+    <t>Carte UP acceptée</t>
+  </si>
+  <si>
+    <t>Jours fermés</t>
+  </si>
+  <si>
+    <t>Déchets</t>
+  </si>
+  <si>
     <t>Cuisine</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
     <t>Boulangerie Matthias</t>
   </si>
   <si>
+    <t>Oui</t>
+  </si>
+  <si>
     <t>Jean-Claude Ziegler</t>
   </si>
   <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Pré-emballé</t>
+  </si>
+  <si>
+    <t>Fusion des saveurs</t>
+  </si>
+  <si>
+    <t>Du Monde</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/annemariemeyer67/</t>
+  </si>
+  <si>
     <t>Arundo, la petite cantine végane</t>
   </si>
   <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Vegan du monde</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/arundo67</t>
+  </si>
+  <si>
     <t>Pizzeria Insieme</t>
   </si>
   <si>
+    <t>Lundi - Mardi</t>
+  </si>
+  <si>
+    <t>Boites à pizza</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>https://insieme-pizzeria.eatbu.com/?lang=fr</t>
+  </si>
+  <si>
+    <t>Velicious</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>https://www.velicious.fr/le-restaurant-w1.html</t>
+  </si>
+  <si>
+    <t>Burger Club</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>https://burger-club.fr/#</t>
+  </si>
+  <si>
+    <t>Le Pied de Mammouth</t>
+  </si>
+  <si>
+    <t>https://lpmburger.fr/menu-burger/esplanade</t>
+  </si>
+  <si>
     <t>Pâtisserie Pauline</t>
   </si>
   <si>
+    <t>Divers</t>
+  </si>
+  <si>
     <t>Le Biggie's</t>
   </si>
   <si>
-    <t>Le Pied de Mammouth</t>
+    <t>https://biggies.fr/</t>
+  </si>
+  <si>
+    <t>Bella Vita</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bellavitastrasbourg/</t>
+  </si>
+  <si>
+    <t>Coffee Stub</t>
+  </si>
+  <si>
+    <t>Wrap, quiche</t>
   </si>
   <si>
     <t>Al Diwan</t>
   </si>
   <si>
+    <t>Libanais</t>
+  </si>
+  <si>
+    <t>https://www.restaurant-aldiwan.fr/</t>
+  </si>
+  <si>
+    <t>Bioburger</t>
+  </si>
+  <si>
+    <t>https://www.bioburger.fr/menu/</t>
+  </si>
+  <si>
+    <t>L'artisan du wrap</t>
+  </si>
+  <si>
+    <t>Non si commande en ligne</t>
+  </si>
+  <si>
+    <t>Cartonnés</t>
+  </si>
+  <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>https://www.artisanduwrap.com/</t>
+  </si>
+  <si>
+    <t>Bloomy Sweet</t>
+  </si>
+  <si>
     <t>La Rizière</t>
   </si>
   <si>
-    <t>Bioburger</t>
-  </si>
-  <si>
-    <t>L'artisan du wrap</t>
+    <t>Pas trop</t>
+  </si>
+  <si>
+    <t>Sandwich, bo bun</t>
+  </si>
+  <si>
+    <t>https://la-riziere.fr/</t>
+  </si>
+  <si>
+    <t>Paradise Plant-Based</t>
+  </si>
+  <si>
+    <t>Oui même en ligne</t>
+  </si>
+  <si>
+    <t>Burger, kebab</t>
+  </si>
+  <si>
+    <t>https://app.pulp.eu/shop/3d3852b2-7efb-4e2c-956d-83551c7e6d6a?free=true&amp;gl=1</t>
+  </si>
+  <si>
+    <t>Pop&amp;Lino</t>
+  </si>
+  <si>
+    <t>Pizza, italien</t>
+  </si>
+  <si>
+    <t>http://www.popetlino.fr/</t>
   </si>
   <si>
     <t>Végéman</t>
   </si>
   <si>
-    <t>Fusion des saveurs</t>
-  </si>
-  <si>
-    <t>Lundi</t>
-  </si>
-  <si>
-    <t>Velicious</t>
-  </si>
-  <si>
-    <t>Lundi - Mardi</t>
-  </si>
-  <si>
-    <t>Burger Club</t>
-  </si>
-  <si>
-    <t>Bella Vita</t>
-  </si>
-  <si>
-    <t>Pop&amp;Lino</t>
-  </si>
-  <si>
-    <t>Coffee Stub</t>
-  </si>
-  <si>
-    <t>Bloomy Sweet</t>
-  </si>
-  <si>
-    <t>https://www.bioburger.fr/menu/</t>
-  </si>
-  <si>
-    <t>Du Monde</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t>Divers</t>
-  </si>
-  <si>
-    <t>Wrap, quiche</t>
-  </si>
-  <si>
-    <t>Libanais</t>
-  </si>
-  <si>
-    <t>Wrap</t>
-  </si>
-  <si>
-    <t>Sandwich, bo bun</t>
-  </si>
-  <si>
-    <t>Burger, kebab</t>
-  </si>
-  <si>
-    <t>Pizza, italien</t>
-  </si>
-  <si>
     <t>Kebab vegan</t>
   </si>
   <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>Vegan du monde</t>
-  </si>
-  <si>
     <t>https://www.vegeman.fr/</t>
   </si>
   <si>
-    <t>http://www.popetlino.fr/</t>
-  </si>
-  <si>
-    <t>https://app.pulp.eu/shop/3d3852b2-7efb-4e2c-956d-83551c7e6d6a?free=true&amp;gl=1</t>
-  </si>
-  <si>
-    <t>https://la-riziere.fr/</t>
-  </si>
-  <si>
-    <t>https://www.artisanduwrap.com/</t>
-  </si>
-  <si>
-    <t>Mercredi</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bellavitastrasbourg/</t>
-  </si>
-  <si>
-    <t>https://biggies.fr/</t>
-  </si>
-  <si>
-    <t>https://lpmburger.fr/menu-burger/esplanade</t>
-  </si>
-  <si>
-    <t>https://burger-club.fr/#</t>
-  </si>
-  <si>
-    <t>https://www.velicious.fr/le-restaurant-w1.html</t>
-  </si>
-  <si>
-    <t>https://insieme-pizzeria.eatbu.com/?lang=fr</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/arundo67</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/annemariemeyer67/</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Carte UP acceptée</t>
+    <t>Dim Sum Sam</t>
+  </si>
+  <si>
+    <t>Possibilité d'emmener son tupperware</t>
+  </si>
+  <si>
+    <t>Cuisine vapeur asiatique</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo/?fbid=490434979758543&amp;set=p.490434979758543</t>
   </si>
   <si>
     <t>Du blé au pain</t>
@@ -208,43 +247,25 @@
     <t>https://dubleaupain.com/#snacking</t>
   </si>
   <si>
-    <t>Dim Sum Sam</t>
-  </si>
-  <si>
-    <t>Cuisine vapeur asiatique</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo/?fbid=490434979758543&amp;set=p.490434979758543</t>
-  </si>
-  <si>
-    <t>Jours fermés</t>
-  </si>
-  <si>
-    <t>Pas trop</t>
-  </si>
-  <si>
-    <t>Pré-emballé</t>
-  </si>
-  <si>
-    <t>Boites à pizza</t>
-  </si>
-  <si>
-    <t>Déchets</t>
-  </si>
-  <si>
-    <t>Possibilité d'emmener son tupperware</t>
-  </si>
-  <si>
-    <t>Non si commande en ligne</t>
-  </si>
-  <si>
-    <t>Oui même en ligne</t>
-  </si>
-  <si>
-    <t>Paradise Plant-Based</t>
-  </si>
-  <si>
-    <t>Cartonnés</t>
+    <t>Sushido</t>
+  </si>
+  <si>
+    <t>Sushi/maki</t>
+  </si>
+  <si>
+    <t>https://sushido.fr/</t>
+  </si>
+  <si>
+    <t>Lundi - mardi - mercredi</t>
+  </si>
+  <si>
+    <t>My Poké - Hawaiian Custom Bowl</t>
+  </si>
+  <si>
+    <t>Possibilité d'emmener son tupperware en prévenant lors de la réservation</t>
+  </si>
+  <si>
+    <t>Non (13€ le plat)</t>
   </si>
 </sst>
 </file>
@@ -623,374 +644,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70A71CE-FE8C-4371-85B5-723F404C442C}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="96.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="96.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F23" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F25" r:id="rId1" xr:uid="{07190394-CBD4-456A-ADAE-05282B639E67}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{8E2D6914-8E3B-475C-9427-DC2E9EC1DCA4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/OnPeutMangerOu.xlsx
+++ b/OnPeutMangerOu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\Boulot\OnVaMangerOu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4649F7-A4D6-4FB4-8212-993F668B3A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7DEB7B-5A53-4D2B-8D96-4F2B9C2133D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5A42B110-F43A-4484-9137-61000501A04F}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Nom</t>
   </si>
@@ -70,15 +69,6 @@
     <t>Pré-emballé</t>
   </si>
   <si>
-    <t>Fusion des saveurs</t>
-  </si>
-  <si>
-    <t>Du Monde</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/annemariemeyer67/</t>
-  </si>
-  <si>
     <t>Arundo, la petite cantine végane</t>
   </si>
   <si>
@@ -115,9 +105,6 @@
     <t>https://www.velicious.fr/le-restaurant-w1.html</t>
   </si>
   <si>
-    <t>Burger Club</t>
-  </si>
-  <si>
     <t>Burger</t>
   </si>
   <si>
@@ -163,9 +150,6 @@
     <t>https://www.restaurant-aldiwan.fr/</t>
   </si>
   <si>
-    <t>Bioburger</t>
-  </si>
-  <si>
     <t>https://www.bioburger.fr/menu/</t>
   </si>
   <si>
@@ -199,18 +183,9 @@
     <t>https://la-riziere.fr/</t>
   </si>
   <si>
-    <t>Paradise Plant-Based</t>
-  </si>
-  <si>
     <t>Oui même en ligne</t>
   </si>
   <si>
-    <t>Burger, kebab</t>
-  </si>
-  <si>
-    <t>https://app.pulp.eu/shop/3d3852b2-7efb-4e2c-956d-83551c7e6d6a?free=true&amp;gl=1</t>
-  </si>
-  <si>
     <t>Pop&amp;Lino</t>
   </si>
   <si>
@@ -256,16 +231,58 @@
     <t>https://sushido.fr/</t>
   </si>
   <si>
-    <t>Lundi - mardi - mercredi</t>
-  </si>
-  <si>
     <t>My Poké - Hawaiian Custom Bowl</t>
   </si>
   <si>
     <t>Possibilité d'emmener son tupperware en prévenant lors de la réservation</t>
   </si>
   <si>
-    <t>Non (13€ le plat)</t>
+    <t>Non (14€ le plat)</t>
+  </si>
+  <si>
+    <t>Aux Mille et Une Saveurs</t>
+  </si>
+  <si>
+    <t>Boulangerie</t>
+  </si>
+  <si>
+    <t>YOLO Smash Burger</t>
+  </si>
+  <si>
+    <t>Bioburger Bateliers</t>
+  </si>
+  <si>
+    <t>Bang Burgers</t>
+  </si>
+  <si>
+    <t>Abbiocco</t>
+  </si>
+  <si>
+    <t>Foccacias</t>
+  </si>
+  <si>
+    <t>https://www.abbiocco.fr/menu</t>
+  </si>
+  <si>
+    <t>Namsam Maru - Korean Street Food</t>
+  </si>
+  <si>
+    <t>Street food coréenne</t>
+  </si>
+  <si>
+    <t>https://www.namsanmaru.com/carte</t>
+  </si>
+  <si>
+    <t>Yamas</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo/?fbid=609947381139803&amp;set=p.609947381139803</t>
+  </si>
+  <si>
+    <t>Pitas (Grec)</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
   </si>
 </sst>
 </file>
@@ -644,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70A71CE-FE8C-4371-85B5-723F404C442C}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,107 +727,103 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
@@ -820,245 +833,287 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F25" r:id="rId1" xr:uid="{07190394-CBD4-456A-ADAE-05282B639E67}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{8E2D6914-8E3B-475C-9427-DC2E9EC1DCA4}"/>
+    <hyperlink ref="F28" r:id="rId1" xr:uid="{07190394-CBD4-456A-ADAE-05282B639E67}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{8E2D6914-8E3B-475C-9427-DC2E9EC1DCA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
